--- a/data/trans_orig/P42B-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P42B-Dificultad-trans_orig.xlsx
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4840</v>
+        <v>5342</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006008582936785487</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02965400922545717</v>
+        <v>0.03272978694270046</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>4088</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>954</v>
+        <v>1120</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10144</v>
+        <v>11015</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02504715210792064</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005845789806779403</v>
+        <v>0.006862643909778483</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06214547112492234</v>
+        <v>0.0674813722801039</v>
       </c>
     </row>
     <row r="6">
@@ -682,19 +682,19 @@
         <v>9001</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4053</v>
+        <v>4148</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15916</v>
+        <v>16100</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05514609271608523</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02483322920915236</v>
+        <v>0.02541118960057391</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09750764293394079</v>
+        <v>0.09863650364917749</v>
       </c>
     </row>
     <row r="7">
@@ -711,19 +711,19 @@
         <v>110525</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>98026</v>
+        <v>96388</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>122544</v>
+        <v>121435</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6771373511025894</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6005618589866395</v>
+        <v>0.5905252370273526</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7507699700307083</v>
+        <v>0.7439765661383989</v>
       </c>
     </row>
     <row r="8">
@@ -740,19 +740,19 @@
         <v>11770</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5950</v>
+        <v>5574</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21909</v>
+        <v>21634</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07210897520899133</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03644990959630407</v>
+        <v>0.03414688230620501</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1342250959350366</v>
+        <v>0.1325406852338523</v>
       </c>
     </row>
     <row r="9">
@@ -769,19 +769,19 @@
         <v>26859</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>18641</v>
+        <v>18739</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>38215</v>
+        <v>37827</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1645518459276279</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1142066392702508</v>
+        <v>0.1148046077774401</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2341246897338097</v>
+        <v>0.2317463715571896</v>
       </c>
     </row>
     <row r="10">
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6727</v>
+        <v>6542</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009193672650735852</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03356630987246538</v>
+        <v>0.03264477680055507</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +860,19 @@
         <v>6910</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2866</v>
+        <v>2990</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14174</v>
+        <v>13797</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03447793884643245</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01430063393531871</v>
+        <v>0.01491851804979864</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07072665832742095</v>
+        <v>0.06884658839475566</v>
       </c>
     </row>
     <row r="13">
@@ -889,19 +889,19 @@
         <v>9870</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4874</v>
+        <v>4699</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17295</v>
+        <v>16947</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04925027155849714</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0243206492954159</v>
+        <v>0.02344994552940665</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08630110741811785</v>
+        <v>0.08456337421944148</v>
       </c>
     </row>
     <row r="14">
@@ -918,19 +918,19 @@
         <v>149176</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>136772</v>
+        <v>135414</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>161196</v>
+        <v>160113</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7443764117673786</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6824800927611853</v>
+        <v>0.6757042612492048</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8043527920904994</v>
+        <v>0.7989507140264032</v>
       </c>
     </row>
     <row r="15">
@@ -947,19 +947,19 @@
         <v>8343</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4122</v>
+        <v>4079</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>15922</v>
+        <v>15777</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04163275661573491</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02056824450284</v>
+        <v>0.0203553799196815</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07944793973406403</v>
+        <v>0.07872773987629812</v>
       </c>
     </row>
     <row r="16">
@@ -976,19 +976,19 @@
         <v>24263</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15887</v>
+        <v>16311</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34280</v>
+        <v>36144</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1210689485612211</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07927675922349467</v>
+        <v>0.08139140511949386</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1710552003210427</v>
+        <v>0.1803537182850214</v>
       </c>
     </row>
     <row r="17">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5937</v>
+        <v>6602</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009007738272419458</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0286185183415639</v>
+        <v>0.0318228712847584</v>
       </c>
     </row>
     <row r="20">
@@ -1088,19 +1088,19 @@
         <v>7796</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3807</v>
+        <v>3780</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14795</v>
+        <v>14513</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03757995107977777</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01835161011995684</v>
+        <v>0.01821947866107856</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.071319983815205</v>
+        <v>0.06995892752409209</v>
       </c>
     </row>
     <row r="21">
@@ -1117,19 +1117,19 @@
         <v>158764</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>147443</v>
+        <v>145835</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>171369</v>
+        <v>170278</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7653250050479372</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7107482947518519</v>
+        <v>0.7029982639337633</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.826086796293332</v>
+        <v>0.8208252616773531</v>
       </c>
     </row>
     <row r="22">
@@ -1146,19 +1146,19 @@
         <v>8676</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3941</v>
+        <v>4144</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15611</v>
+        <v>17869</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04182089501656014</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01899525296956221</v>
+        <v>0.01997447986335772</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07525431358443711</v>
+        <v>0.08613532139931331</v>
       </c>
     </row>
     <row r="23">
@@ -1175,19 +1175,19 @@
         <v>30343</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>20567</v>
+        <v>20815</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>40522</v>
+        <v>39941</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1462664105833055</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09914456753660346</v>
+        <v>0.1003377089975696</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1953355002742333</v>
+        <v>0.1925349158553545</v>
       </c>
     </row>
     <row r="24">
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5119</v>
+        <v>5368</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01325513350883433</v>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07002290294357107</v>
+        <v>0.07342293130192765</v>
       </c>
     </row>
     <row r="27">
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7072</v>
+        <v>7215</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02811870979648055</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09673393937591455</v>
+        <v>0.09869017024214839</v>
       </c>
     </row>
     <row r="28">
@@ -1316,19 +1316,19 @@
         <v>60258</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>53079</v>
+        <v>53139</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>65468</v>
+        <v>65616</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8241936881260304</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7260049869676743</v>
+        <v>0.7268226193680739</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8954549398948273</v>
+        <v>0.8974789189580337</v>
       </c>
     </row>
     <row r="29">
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8025</v>
+        <v>6199</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02777641739413692</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1097710612702825</v>
+        <v>0.0847852178808821</v>
       </c>
     </row>
     <row r="30">
@@ -1374,19 +1374,19 @@
         <v>7798</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3752</v>
+        <v>3007</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13779</v>
+        <v>13804</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1066560511745178</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05132118961755219</v>
+        <v>0.0411319940659175</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1884617043776733</v>
+        <v>0.188811556818608</v>
       </c>
     </row>
     <row r="31">
@@ -1436,19 +1436,19 @@
         <v>2823</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7836</v>
+        <v>8591</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.004382574885891888</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001346367808017915</v>
+        <v>0.001344331050865177</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01216378284041854</v>
+        <v>0.01333684675216912</v>
       </c>
     </row>
     <row r="33">
@@ -1465,19 +1465,19 @@
         <v>13836</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>7630</v>
+        <v>7423</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>22388</v>
+        <v>22335</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02147754721628441</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01184391596588217</v>
+        <v>0.01152250858564468</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03475411365322964</v>
+        <v>0.03467158263094422</v>
       </c>
     </row>
     <row r="34">
@@ -1494,19 +1494,19 @@
         <v>28723</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>19229</v>
+        <v>20051</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>39572</v>
+        <v>39657</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04458767589407675</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02984946054838201</v>
+        <v>0.03112596406434154</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06142974297931945</v>
+        <v>0.06156200162536819</v>
       </c>
     </row>
     <row r="35">
@@ -1523,19 +1523,19 @@
         <v>478722</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>456093</v>
+        <v>455811</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>500466</v>
+        <v>498872</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.7431441356474555</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.7080148569739191</v>
+        <v>0.7075776010876829</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.7768977922994051</v>
+        <v>0.7744235221665586</v>
       </c>
     </row>
     <row r="36">
@@ -1552,19 +1552,19 @@
         <v>30820</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>21189</v>
+        <v>22034</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>44011</v>
+        <v>45214</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04784282302466362</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03289316209822939</v>
+        <v>0.03420477824466278</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06832010796047694</v>
+        <v>0.07018820776719907</v>
       </c>
     </row>
     <row r="37">
@@ -1581,19 +1581,19 @@
         <v>89262</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>72698</v>
+        <v>73115</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>107667</v>
+        <v>106354</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1385652433316278</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1128528765030444</v>
+        <v>0.1135004230749112</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1671366553133251</v>
+        <v>0.1650979709471439</v>
       </c>
     </row>
     <row r="38">
@@ -1761,19 +1761,19 @@
         <v>11303</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6034</v>
+        <v>5970</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19060</v>
+        <v>19508</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01347583939606747</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007194167364203776</v>
+        <v>0.007117280262961926</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02272440428631612</v>
+        <v>0.0232583799499674</v>
       </c>
     </row>
     <row r="5">
@@ -1790,19 +1790,19 @@
         <v>12411</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6720</v>
+        <v>6813</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20855</v>
+        <v>21073</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01479708106007721</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008011462851692302</v>
+        <v>0.008123182207750599</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02486507108151017</v>
+        <v>0.02512411043331388</v>
       </c>
     </row>
     <row r="6">
@@ -1819,19 +1819,19 @@
         <v>10324</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5158</v>
+        <v>5044</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20580</v>
+        <v>19796</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01230925705323867</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006149666158773906</v>
+        <v>0.006013425302458172</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0245373853059432</v>
+        <v>0.02360224239632234</v>
       </c>
     </row>
     <row r="7">
@@ -1848,19 +1848,19 @@
         <v>597504</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>571228</v>
+        <v>570399</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>625439</v>
+        <v>622748</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7123838828532845</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6810560329762138</v>
+        <v>0.6800675576485061</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7456895035117356</v>
+        <v>0.7424815751160223</v>
       </c>
     </row>
     <row r="8">
@@ -1877,19 +1877,19 @@
         <v>43167</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>31378</v>
+        <v>30219</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>58309</v>
+        <v>59020</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05146674932228871</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03741124249128469</v>
+        <v>0.03602871777013728</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06952014414414123</v>
+        <v>0.0703670463400842</v>
       </c>
     </row>
     <row r="9">
@@ -1906,19 +1906,19 @@
         <v>164030</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>140659</v>
+        <v>141325</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>188079</v>
+        <v>187411</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1955671903150435</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.167702853342122</v>
+        <v>0.1684973647726387</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2242399823345673</v>
+        <v>0.2234440714352888</v>
       </c>
     </row>
     <row r="10">
@@ -1968,19 +1968,19 @@
         <v>14051</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7211</v>
+        <v>7289</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23797</v>
+        <v>22626</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01666799465168476</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008553915564214731</v>
+        <v>0.008646418077270433</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02823015526325428</v>
+        <v>0.02684019187519277</v>
       </c>
     </row>
     <row r="12">
@@ -1997,19 +1997,19 @@
         <v>6011</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2038</v>
+        <v>1990</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12034</v>
+        <v>12543</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007130489871299447</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002417165153619314</v>
+        <v>0.002361098754561228</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01427570856659563</v>
+        <v>0.0148790478899641</v>
       </c>
     </row>
     <row r="13">
@@ -2026,19 +2026,19 @@
         <v>8906</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3967</v>
+        <v>3917</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17301</v>
+        <v>16903</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01056532917780511</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004706290584213981</v>
+        <v>0.004646262119139585</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02052381647336134</v>
+        <v>0.02005107743003682</v>
       </c>
     </row>
     <row r="14">
@@ -2055,19 +2055,19 @@
         <v>608400</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>582134</v>
+        <v>581024</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>633673</v>
+        <v>634280</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7217264003410181</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6905671908011893</v>
+        <v>0.6892510152160295</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7517069494807933</v>
+        <v>0.7524273325418696</v>
       </c>
     </row>
     <row r="15">
@@ -2084,19 +2084,19 @@
         <v>51227</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>38308</v>
+        <v>38260</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>69362</v>
+        <v>68236</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06076919318607478</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04544374006595174</v>
+        <v>0.04538629048904269</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08228217864743892</v>
+        <v>0.08094643727750805</v>
       </c>
     </row>
     <row r="16">
@@ -2113,19 +2113,19 @@
         <v>154384</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>132862</v>
+        <v>131615</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>179244</v>
+        <v>177078</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1831405927721178</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1576099499048725</v>
+        <v>0.1561304336530958</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2126314625020146</v>
+        <v>0.2100618940567586</v>
       </c>
     </row>
     <row r="17">
@@ -2175,19 +2175,19 @@
         <v>9456</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4235</v>
+        <v>4265</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17906</v>
+        <v>17368</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01380847777536871</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.006183551832099038</v>
+        <v>0.006228088818328406</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02614614128789719</v>
+        <v>0.02536082994141675</v>
       </c>
     </row>
     <row r="19">
@@ -2204,19 +2204,19 @@
         <v>3669</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>973</v>
+        <v>956</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11448</v>
+        <v>9768</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005357417618031431</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001420889091673933</v>
+        <v>0.001396378944371831</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0167170055556472</v>
+        <v>0.01426319783048055</v>
       </c>
     </row>
     <row r="20">
@@ -2233,19 +2233,19 @@
         <v>16847</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9628</v>
+        <v>9648</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27150</v>
+        <v>27084</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02460023759334842</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01405894575370925</v>
+        <v>0.01408753073858572</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03964446664955965</v>
+        <v>0.03954832269759938</v>
       </c>
     </row>
     <row r="21">
@@ -2262,19 +2262,19 @@
         <v>484162</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>459594</v>
+        <v>458067</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>506899</v>
+        <v>508740</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.706985696496674</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6711111970437194</v>
+        <v>0.6688808296882807</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7401859751142077</v>
+        <v>0.7428744982568314</v>
       </c>
     </row>
     <row r="22">
@@ -2291,19 +2291,19 @@
         <v>50570</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38924</v>
+        <v>37799</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>66010</v>
+        <v>64724</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07384387205259996</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05683849991840848</v>
+        <v>0.05519490866683757</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09638948287114291</v>
+        <v>0.09451117272377557</v>
       </c>
     </row>
     <row r="23">
@@ -2320,19 +2320,19 @@
         <v>120121</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>99888</v>
+        <v>100415</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>142138</v>
+        <v>140719</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1754042984639775</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1458589343891654</v>
+        <v>0.1466277571547437</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2075539746929021</v>
+        <v>0.2054811399034907</v>
       </c>
     </row>
     <row r="24">
@@ -2382,19 +2382,19 @@
         <v>7927</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3670</v>
+        <v>3083</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16376</v>
+        <v>16115</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0218993625691619</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01013769283877842</v>
+        <v>0.008517694315499494</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04523719221105224</v>
+        <v>0.04451636995196177</v>
       </c>
     </row>
     <row r="26">
@@ -2414,16 +2414,16 @@
         <v>903</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8071</v>
+        <v>9048</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.008300780055499562</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002495281359751184</v>
+        <v>0.002494440518710025</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02229561493288616</v>
+        <v>0.02499610479534113</v>
       </c>
     </row>
     <row r="27">
@@ -2440,19 +2440,19 @@
         <v>6891</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2913</v>
+        <v>2961</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>13683</v>
+        <v>13265</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01903734111990492</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.008047423505961101</v>
+        <v>0.00818096298991389</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03779780679988452</v>
+        <v>0.03664303340007986</v>
       </c>
     </row>
     <row r="28">
@@ -2469,19 +2469,19 @@
         <v>281459</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>264955</v>
+        <v>264455</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>297852</v>
+        <v>297007</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7775229397865824</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7319314816391239</v>
+        <v>0.7305512418827906</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8228103945203341</v>
+        <v>0.8204761785458403</v>
       </c>
     </row>
     <row r="29">
@@ -2498,19 +2498,19 @@
         <v>13387</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7496</v>
+        <v>7545</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21916</v>
+        <v>22562</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03698093511318397</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02070795874297469</v>
+        <v>0.02084307108281147</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06054221842875614</v>
+        <v>0.06232728318183307</v>
       </c>
     </row>
     <row r="30">
@@ -2527,19 +2527,19 @@
         <v>49325</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>36620</v>
+        <v>37129</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>63453</v>
+        <v>64388</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1362586413556672</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1011606211255616</v>
+        <v>0.1025685621369507</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1752861037028389</v>
+        <v>0.1778695025013353</v>
       </c>
     </row>
     <row r="31">
@@ -2589,19 +2589,19 @@
         <v>42737</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>29695</v>
+        <v>29176</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>56406</v>
+        <v>56558</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01566308505088151</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01088328549383754</v>
+        <v>0.01069277589912435</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02067262838173915</v>
+        <v>0.02072830045805294</v>
       </c>
     </row>
     <row r="33">
@@ -2618,19 +2618,19 @@
         <v>25095</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>16888</v>
+        <v>15504</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>37082</v>
+        <v>35355</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.009197408236826129</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.006189347418235794</v>
+        <v>0.005682278329197432</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01359044120636116</v>
+        <v>0.01295752365661737</v>
       </c>
     </row>
     <row r="34">
@@ -2647,19 +2647,19 @@
         <v>42969</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>31020</v>
+        <v>31221</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>58130</v>
+        <v>58236</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01574795269577812</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01136882349139596</v>
+        <v>0.01144255225745507</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02130449862871029</v>
+        <v>0.0213434519272682</v>
       </c>
     </row>
     <row r="35">
@@ -2676,19 +2676,19 @@
         <v>1971525</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1922280</v>
+        <v>1917991</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2020494</v>
+        <v>2016681</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.7225573425254483</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.7045090296037201</v>
+        <v>0.7029371786921169</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.7405042198064558</v>
+        <v>0.7391066749314883</v>
       </c>
     </row>
     <row r="36">
@@ -2705,19 +2705,19 @@
         <v>158351</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>134481</v>
+        <v>134784</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>184986</v>
+        <v>185915</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05803525447880407</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04928674609604926</v>
+        <v>0.04939790145969589</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06779680240234225</v>
+        <v>0.06813721726762551</v>
       </c>
     </row>
     <row r="37">
@@ -2734,19 +2734,19 @@
         <v>487860</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>448395</v>
+        <v>444900</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>526987</v>
+        <v>528819</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1787989570122618</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1643351909705862</v>
+        <v>0.1630544865845321</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1931388452556908</v>
+        <v>0.1938103616070191</v>
       </c>
     </row>
     <row r="38">
@@ -2914,19 +2914,19 @@
         <v>25130</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16220</v>
+        <v>15916</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37726</v>
+        <v>37394</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02592999633146781</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01673696650801139</v>
+        <v>0.01642302034394949</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03892711752344558</v>
+        <v>0.03858491390722016</v>
       </c>
     </row>
     <row r="5">
@@ -2943,19 +2943,19 @@
         <v>3046</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8255</v>
+        <v>8141</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.003143036432970567</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001004921067862167</v>
+        <v>0.001003319073420993</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.008518243310391659</v>
+        <v>0.008400312252628087</v>
       </c>
     </row>
     <row r="6">
@@ -2972,19 +2972,19 @@
         <v>24277</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15276</v>
+        <v>15790</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35604</v>
+        <v>37059</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0250504701621784</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01576292327073011</v>
+        <v>0.01629290137818248</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03673736350649508</v>
+        <v>0.03823944000954524</v>
       </c>
     </row>
     <row r="7">
@@ -3001,19 +3001,19 @@
         <v>696682</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>667254</v>
+        <v>668333</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>724547</v>
+        <v>722195</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7188679512368027</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6885031387641207</v>
+        <v>0.6896170783811895</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7476208697685666</v>
+        <v>0.7451935832985161</v>
       </c>
     </row>
     <row r="8">
@@ -3030,19 +3030,19 @@
         <v>59644</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>46467</v>
+        <v>45526</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>77152</v>
+        <v>76368</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06154387561654762</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04794682202855196</v>
+        <v>0.04697556774632294</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.079609239118189</v>
+        <v>0.07879983329155593</v>
       </c>
     </row>
     <row r="9">
@@ -3059,19 +3059,19 @@
         <v>160358</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>138921</v>
+        <v>139134</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>183490</v>
+        <v>183484</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1654646702200329</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1433451111188766</v>
+        <v>0.1435645452421093</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1893332328826894</v>
+        <v>0.1893271291031483</v>
       </c>
     </row>
     <row r="10">
@@ -3121,19 +3121,19 @@
         <v>20968</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13594</v>
+        <v>13097</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>33276</v>
+        <v>32341</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02597485684115419</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01684049310197623</v>
+        <v>0.01622469452030192</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04122149878784703</v>
+        <v>0.04006386137591092</v>
       </c>
     </row>
     <row r="12">
@@ -3150,19 +3150,19 @@
         <v>7031</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3019</v>
+        <v>3090</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13545</v>
+        <v>15355</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.008709614725326133</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003739560003444206</v>
+        <v>0.003828111508301274</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01677935677693482</v>
+        <v>0.01902136228339397</v>
       </c>
     </row>
     <row r="13">
@@ -3179,19 +3179,19 @@
         <v>36373</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24256</v>
+        <v>24993</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49155</v>
+        <v>49663</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04505841568754075</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03004820641647704</v>
+        <v>0.03096126943906682</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0608932966060222</v>
+        <v>0.06152240509354919</v>
       </c>
     </row>
     <row r="14">
@@ -3208,19 +3208,19 @@
         <v>604071</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>577575</v>
+        <v>577484</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>628454</v>
+        <v>627815</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7483193369610998</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7154957538638672</v>
+        <v>0.7153838044443449</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7785242007119346</v>
+        <v>0.7777335000565372</v>
       </c>
     </row>
     <row r="15">
@@ -3237,19 +3237,19 @@
         <v>40400</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>29652</v>
+        <v>29781</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>54578</v>
+        <v>54642</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0500475975177745</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03673268486399774</v>
+        <v>0.03689298692173641</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06761073863563354</v>
+        <v>0.06768973097122703</v>
       </c>
     </row>
     <row r="16">
@@ -3266,19 +3266,19 @@
         <v>98394</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81912</v>
+        <v>81313</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>118965</v>
+        <v>119716</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1218901782671047</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1014721078064739</v>
+        <v>0.1007294373015496</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.147372660316575</v>
+        <v>0.1483038055766405</v>
       </c>
     </row>
     <row r="17">
@@ -3328,19 +3328,19 @@
         <v>18253</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11051</v>
+        <v>11480</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>27574</v>
+        <v>28411</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0301480988183353</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01825353402621243</v>
+        <v>0.01896158773466044</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04554396560017274</v>
+        <v>0.04692654866783648</v>
       </c>
     </row>
     <row r="19">
@@ -3357,19 +3357,19 @@
         <v>2846</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>916</v>
+        <v>925</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7691</v>
+        <v>7618</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.004701200214726973</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001513390094935076</v>
+        <v>0.00152811848050773</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01270282740445392</v>
+        <v>0.01258300182126868</v>
       </c>
     </row>
     <row r="20">
@@ -3386,19 +3386,19 @@
         <v>21673</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14087</v>
+        <v>13621</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>32904</v>
+        <v>31907</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03579715965038519</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02326842927105184</v>
+        <v>0.02249769086801524</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05434747709071438</v>
+        <v>0.05270159838082543</v>
       </c>
     </row>
     <row r="21">
@@ -3415,19 +3415,19 @@
         <v>467024</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>444604</v>
+        <v>446105</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>486559</v>
+        <v>487176</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7713907143294455</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7343599196334347</v>
+        <v>0.7368391877315673</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8036580317759205</v>
+        <v>0.8046768166664818</v>
       </c>
     </row>
     <row r="22">
@@ -3444,19 +3444,19 @@
         <v>32621</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22960</v>
+        <v>22770</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44466</v>
+        <v>45138</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05388036455774369</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03792275820995047</v>
+        <v>0.03760898689437234</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07344495654898496</v>
+        <v>0.07455589655178042</v>
       </c>
     </row>
     <row r="23">
@@ -3473,19 +3473,19 @@
         <v>63015</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>50165</v>
+        <v>49484</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>81065</v>
+        <v>81368</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1040824624293633</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08285886069482618</v>
+        <v>0.08173315844865198</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1338958507944098</v>
+        <v>0.134396363695315</v>
       </c>
     </row>
     <row r="24">
@@ -3535,19 +3535,19 @@
         <v>5024</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1870</v>
+        <v>1929</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11355</v>
+        <v>10324</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01312701888458155</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004885499527323749</v>
+        <v>0.005041381111139953</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02966767937753017</v>
+        <v>0.02697527925194716</v>
       </c>
     </row>
     <row r="26">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8003</v>
+        <v>7590</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.005640086429056316</v>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02091084234796238</v>
+        <v>0.01983018615467866</v>
       </c>
     </row>
     <row r="27">
@@ -3593,19 +3593,19 @@
         <v>6454</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2234</v>
+        <v>2348</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>12630</v>
+        <v>14068</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01686189872232473</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.005836342030087495</v>
+        <v>0.006135779854333815</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03299913603402586</v>
+        <v>0.03675801276703778</v>
       </c>
     </row>
     <row r="28">
@@ -3622,19 +3622,19 @@
         <v>299558</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>282113</v>
+        <v>280287</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>315634</v>
+        <v>316511</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7826921225980855</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7371118149631595</v>
+        <v>0.7323397434229416</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8246951889883762</v>
+        <v>0.8269864136043518</v>
       </c>
     </row>
     <row r="29">
@@ -3651,19 +3651,19 @@
         <v>14470</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8626</v>
+        <v>8586</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>23830</v>
+        <v>23094</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03780765354825846</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0225375712304729</v>
+        <v>0.02243270294200465</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06226380949076863</v>
+        <v>0.06034156368930263</v>
       </c>
     </row>
     <row r="30">
@@ -3680,19 +3680,19 @@
         <v>55064</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>42231</v>
+        <v>41406</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>70248</v>
+        <v>71047</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1438712198176935</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1103411092526716</v>
+        <v>0.108186331917285</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1835442979216018</v>
+        <v>0.1856322727524849</v>
       </c>
     </row>
     <row r="31">
@@ -3742,19 +3742,19 @@
         <v>69374</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>54535</v>
+        <v>52928</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>87365</v>
+        <v>88193</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02509438384457193</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01972658360963112</v>
+        <v>0.01914541162373523</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03160191193559391</v>
+        <v>0.03190152302499148</v>
       </c>
     </row>
     <row r="33">
@@ -3771,19 +3771,19 @@
         <v>15082</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>8935</v>
+        <v>8674</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>24627</v>
+        <v>24257</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.00545539755051021</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.003232080330693212</v>
+        <v>0.00313767070458543</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.008908306996451681</v>
+        <v>0.008774448371560993</v>
       </c>
     </row>
     <row r="34">
@@ -3800,19 +3800,19 @@
         <v>88776</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>70059</v>
+        <v>71526</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>108739</v>
+        <v>110133</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03211261387632945</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02534208574755244</v>
+        <v>0.02587278263802906</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03933345091614567</v>
+        <v>0.03983789062271686</v>
       </c>
     </row>
     <row r="35">
@@ -3829,19 +3829,19 @@
         <v>2067335</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2023690</v>
+        <v>2017804</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2115448</v>
+        <v>2112854</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.7478060980856387</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.7320183155619905</v>
+        <v>0.7298893495173835</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.7652095547480944</v>
+        <v>0.7642711985113576</v>
       </c>
     </row>
     <row r="36">
@@ -3858,19 +3858,19 @@
         <v>147136</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>126667</v>
+        <v>124727</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>172459</v>
+        <v>170639</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05322259033180614</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04581855007061997</v>
+        <v>0.04511699179462299</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06238273298463531</v>
+        <v>0.06172447035990649</v>
       </c>
     </row>
     <row r="37">
@@ -3887,19 +3887,19 @@
         <v>376831</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>342579</v>
+        <v>341723</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>417537</v>
+        <v>415116</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1363089163111436</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.123919161555898</v>
+        <v>0.1236097736691391</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1510333431194341</v>
+        <v>0.1501576191227176</v>
       </c>
     </row>
     <row r="38">
@@ -4067,19 +4067,19 @@
         <v>20137</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12845</v>
+        <v>13322</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29366</v>
+        <v>29244</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05767001142684239</v>
+        <v>0.05767001142684238</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03678705822265132</v>
+        <v>0.03815154593134772</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08409821703626441</v>
+        <v>0.08375060590201298</v>
       </c>
     </row>
     <row r="5">
@@ -4096,19 +4096,19 @@
         <v>2344</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6953</v>
+        <v>6775</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.006714072912959347</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002035559039381436</v>
+        <v>0.001979477542130564</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01991243205021032</v>
+        <v>0.01940376878763376</v>
       </c>
     </row>
     <row r="6">
@@ -4125,19 +4125,19 @@
         <v>21252</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14532</v>
+        <v>14609</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28598</v>
+        <v>28954</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06086330837193367</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04161602750833499</v>
+        <v>0.04183781022373471</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08190081274826036</v>
+        <v>0.08291823507525295</v>
       </c>
     </row>
     <row r="7">
@@ -4154,19 +4154,19 @@
         <v>228534</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>212886</v>
+        <v>213307</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>243334</v>
+        <v>243394</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6544847270189105</v>
+        <v>0.6544847270189104</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6096694319241602</v>
+        <v>0.6108763648250334</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6968683284875355</v>
+        <v>0.6970407073454593</v>
       </c>
     </row>
     <row r="8">
@@ -4183,19 +4183,19 @@
         <v>7009</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3326</v>
+        <v>3416</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12851</v>
+        <v>13513</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02007240783338411</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009526154557995615</v>
+        <v>0.009782936460478776</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03680372010537542</v>
+        <v>0.03869775985008029</v>
       </c>
     </row>
     <row r="9">
@@ -4212,19 +4212,19 @@
         <v>69905</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>57926</v>
+        <v>58173</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>84592</v>
+        <v>84497</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2001954724359701</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1658898963687018</v>
+        <v>0.166597164516714</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2422580279490104</v>
+        <v>0.2419842838894411</v>
       </c>
     </row>
     <row r="10">
@@ -4274,19 +4274,19 @@
         <v>69732</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>56183</v>
+        <v>56763</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>85161</v>
+        <v>86076</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1143703422915593</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09214829439701901</v>
+        <v>0.09309916904405521</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1396768659902227</v>
+        <v>0.1411767646425856</v>
       </c>
     </row>
     <row r="12">
@@ -4303,19 +4303,19 @@
         <v>6555</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3056</v>
+        <v>3470</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12534</v>
+        <v>12831</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01075099524736182</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005012739827539276</v>
+        <v>0.00569147087562968</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02055735216910546</v>
+        <v>0.02104510577186365</v>
       </c>
     </row>
     <row r="13">
@@ -4332,19 +4332,19 @@
         <v>27911</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21040</v>
+        <v>20810</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36504</v>
+        <v>36564</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04577822594456814</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03450916226987044</v>
+        <v>0.03413170142700081</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05987241515609847</v>
+        <v>0.05997089603131107</v>
       </c>
     </row>
     <row r="14">
@@ -4361,19 +4361,19 @@
         <v>375915</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>353223</v>
+        <v>355531</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>394794</v>
+        <v>394888</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6165549046724315</v>
+        <v>0.6165549046724313</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5793362454196337</v>
+        <v>0.5831220372744578</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.647518442423674</v>
+        <v>0.6476726818014359</v>
       </c>
     </row>
     <row r="15">
@@ -4390,19 +4390,19 @@
         <v>20336</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13599</v>
+        <v>13526</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>29973</v>
+        <v>29874</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03335458365641747</v>
+        <v>0.03335458365641746</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02230425828575188</v>
+        <v>0.02218457045751354</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04915954482416567</v>
+        <v>0.04899773100342539</v>
       </c>
     </row>
     <row r="16">
@@ -4419,19 +4419,19 @@
         <v>109253</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>93404</v>
+        <v>93723</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>126798</v>
+        <v>127088</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1791909481876619</v>
+        <v>0.179190948187662</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1531961922948329</v>
+        <v>0.1537196551017465</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2079661488094231</v>
+        <v>0.2084427739828036</v>
       </c>
     </row>
     <row r="17">
@@ -4481,19 +4481,19 @@
         <v>18944</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12210</v>
+        <v>12655</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>28455</v>
+        <v>30186</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03280860155622461</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02114519845049898</v>
+        <v>0.02191638384487305</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04927949743190106</v>
+        <v>0.05227779453806272</v>
       </c>
     </row>
     <row r="19">
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8173</v>
+        <v>9757</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003906774726904737</v>
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01415485417109922</v>
+        <v>0.01689750625007368</v>
       </c>
     </row>
     <row r="20">
@@ -4539,19 +4539,19 @@
         <v>14552</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9856</v>
+        <v>9786</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20858</v>
+        <v>22221</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02520250034618302</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01706846287619275</v>
+        <v>0.01694745132485416</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03612277849938091</v>
+        <v>0.03848395662949591</v>
       </c>
     </row>
     <row r="21">
@@ -4568,19 +4568,19 @@
         <v>437912</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>418555</v>
+        <v>417785</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>455527</v>
+        <v>456261</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7583935616882447</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.724869950321911</v>
+        <v>0.7235363138032961</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.788899003818673</v>
+        <v>0.7901696502869191</v>
       </c>
     </row>
     <row r="22">
@@ -4597,19 +4597,19 @@
         <v>22864</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14164</v>
+        <v>14867</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34696</v>
+        <v>36292</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03959757421327603</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02453002969889501</v>
+        <v>0.02574667927264123</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06008823045455888</v>
+        <v>0.0628518814445103</v>
       </c>
     </row>
     <row r="23">
@@ -4626,19 +4626,19 @@
         <v>80891</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>68679</v>
+        <v>67255</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>96232</v>
+        <v>95372</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1400909874691669</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1189413027318602</v>
+        <v>0.1164740270620397</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1666576595199548</v>
+        <v>0.1651694046208239</v>
       </c>
     </row>
     <row r="24">
@@ -4688,19 +4688,19 @@
         <v>15998</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10742</v>
+        <v>10217</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24894</v>
+        <v>24919</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02966570396028748</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01992022020871605</v>
+        <v>0.01894626325494137</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04616220278110154</v>
+        <v>0.04620869221530197</v>
       </c>
     </row>
     <row r="26">
@@ -4717,19 +4717,19 @@
         <v>2187</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6010</v>
+        <v>6013</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.004056349146254493</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001260081482524883</v>
+        <v>0.001273449748146289</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01114534407381911</v>
+        <v>0.01115039625673726</v>
       </c>
     </row>
     <row r="27">
@@ -4746,19 +4746,19 @@
         <v>7330</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4080</v>
+        <v>4170</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>12537</v>
+        <v>12863</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01359251151447965</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.007565190914569978</v>
+        <v>0.007733197112426503</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02324833895103831</v>
+        <v>0.02385245579690617</v>
       </c>
     </row>
     <row r="28">
@@ -4775,19 +4775,19 @@
         <v>437634</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>417970</v>
+        <v>419321</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>454403</v>
+        <v>454516</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.811534752338285</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7750715149698967</v>
+        <v>0.7775750693864506</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8426301532356428</v>
+        <v>0.8428401408905957</v>
       </c>
     </row>
     <row r="29">
@@ -4804,19 +4804,19 @@
         <v>12660</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7949</v>
+        <v>7434</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21044</v>
+        <v>20562</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02347634497553927</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01474071515134852</v>
+        <v>0.01378544624359129</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03902418642916825</v>
+        <v>0.03812950931256386</v>
       </c>
     </row>
     <row r="30">
@@ -4833,19 +4833,19 @@
         <v>63458</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>49642</v>
+        <v>50224</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>79527</v>
+        <v>81284</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1176743380651542</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09205462587930116</v>
+        <v>0.09313425163384539</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1474717340279954</v>
+        <v>0.1507300225351106</v>
       </c>
     </row>
     <row r="31">
@@ -4895,19 +4895,19 @@
         <v>124811</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>106684</v>
+        <v>105322</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>147902</v>
+        <v>147190</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.06013345548893246</v>
+        <v>0.06013345548893247</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0513997936158767</v>
+        <v>0.05074336418336105</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07125816839362828</v>
+        <v>0.07091532923712325</v>
       </c>
     </row>
     <row r="33">
@@ -4924,19 +4924,19 @@
         <v>13343</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>8009</v>
+        <v>7908</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>21858</v>
+        <v>21616</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.006428420562943456</v>
+        <v>0.006428420562943457</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.003858798478064819</v>
+        <v>0.003809815592516497</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01053112272843007</v>
+        <v>0.01041429511435178</v>
       </c>
     </row>
     <row r="34">
@@ -4953,19 +4953,19 @@
         <v>71046</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>59098</v>
+        <v>58363</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>84302</v>
+        <v>83863</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.03422956082018891</v>
+        <v>0.03422956082018892</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02847316478577195</v>
+        <v>0.02811918446211149</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04061626271017959</v>
+        <v>0.04040491540350691</v>
       </c>
     </row>
     <row r="35">
@@ -4982,19 +4982,19 @@
         <v>1479996</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1444867</v>
+        <v>1443435</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1512730</v>
+        <v>1516741</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.7130541352228752</v>
+        <v>0.7130541352228753</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.6961292999601444</v>
+        <v>0.6954391253577692</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.7288252121885864</v>
+        <v>0.730757959773654</v>
       </c>
     </row>
     <row r="36">
@@ -5011,19 +5011,19 @@
         <v>62870</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>49714</v>
+        <v>50170</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>78545</v>
+        <v>82891</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.03029033563298756</v>
+        <v>0.03029033563298757</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02395191686311779</v>
+        <v>0.02417154346643277</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03784269762667012</v>
+        <v>0.03993632666159549</v>
       </c>
     </row>
     <row r="37">
@@ -5040,19 +5040,19 @@
         <v>323507</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>297302</v>
+        <v>294215</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>352600</v>
+        <v>353459</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1558640922720724</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1432383483128837</v>
+        <v>0.1417511823232954</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1698809721151595</v>
+        <v>0.170294455807027</v>
       </c>
     </row>
     <row r="38">
